--- a/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
   <si>
     <t>土地坐落</t>
   </si>
@@ -246,6 +246,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中影</t>
   </si>
   <si>
@@ -280,6 +289,9 @@
   </si>
   <si>
     <t>新光金</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
   </si>
   <si>
     <t>名</t>
@@ -1647,13 +1659,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1672,13 +1684,22 @@
       <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1695,13 +1716,22 @@
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1718,13 +1748,22 @@
       <c r="G3" s="2">
         <v>5290</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1741,13 +1780,22 @@
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1764,13 +1812,22 @@
       <c r="G5" s="2">
         <v>167520</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1787,13 +1844,22 @@
       <c r="G6" s="2">
         <v>24830</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1810,13 +1876,22 @@
       <c r="G7" s="2">
         <v>950000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1833,13 +1908,22 @@
       <c r="G8" s="2">
         <v>273890</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1856,13 +1940,22 @@
       <c r="G9" s="2">
         <v>45450</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1879,13 +1972,22 @@
       <c r="G10" s="2">
         <v>77660</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1902,13 +2004,22 @@
       <c r="G11" s="2">
         <v>141680</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1925,13 +2036,22 @@
       <c r="G12" s="2">
         <v>9720</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1947,6 +2067,15 @@
       </c>
       <c r="G13" s="2">
         <v>200000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2">
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -1964,16 +2093,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1981,13 +2110,13 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1996,16 +2125,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2026,19 +2155,19 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2046,19 +2175,19 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>12000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -2082,19 +2211,19 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2102,22 +2231,22 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2">
         <v>27380563</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
   <si>
     <t>土地坐落</t>
   </si>
@@ -246,6 +246,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -289,6 +292,9 @@
   </si>
   <si>
     <t>新光金</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-18</t>
@@ -1659,13 +1665,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1693,13 +1699,16 @@
       <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1717,21 +1726,24 @@
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1749,21 +1761,24 @@
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1781,21 +1796,24 @@
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2">
+        <v>91</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1813,21 +1831,24 @@
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="2">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1845,21 +1866,24 @@
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2">
+        <v>91</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1877,21 +1901,24 @@
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1909,21 +1936,24 @@
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2">
+        <v>91</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1941,21 +1971,24 @@
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="2">
+        <v>91</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1973,21 +2006,24 @@
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="2">
+        <v>91</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -2005,21 +2041,24 @@
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="2">
+        <v>91</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -2037,21 +2076,24 @@
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="2">
+        <v>91</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -2069,12 +2111,15 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="2">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2">
         <v>966</v>
       </c>
     </row>
@@ -2093,16 +2138,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2110,13 +2155,13 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2125,16 +2170,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2155,19 +2200,19 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2175,19 +2220,19 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>12000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -2211,19 +2256,19 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2231,22 +2276,22 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>27380563</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="121">
   <si>
     <t>土地坐落</t>
   </si>
@@ -249,6 +249,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -258,6 +261,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中影</t>
   </si>
   <si>
@@ -297,7 +306,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>tmp671f1</t>
   </si>
   <si>
     <t>名</t>
@@ -1665,13 +1680,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1702,13 +1717,22 @@
       <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1726,24 +1750,33 @@
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1761,24 +1794,33 @@
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2">
+        <v>95</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1796,24 +1838,33 @@
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1831,24 +1882,33 @@
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1866,24 +1926,33 @@
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2">
+        <v>95</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1901,24 +1970,33 @@
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="2">
+        <v>95</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1936,24 +2014,33 @@
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="2">
+        <v>95</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1971,24 +2058,33 @@
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="2">
+        <v>95</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -2006,24 +2102,33 @@
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="2">
+        <v>95</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -2041,24 +2146,33 @@
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="2">
+        <v>95</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -2076,24 +2190,33 @@
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="2">
+        <v>95</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -2111,16 +2234,25 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="2">
+        <v>966</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="2">
         <v>90</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="2">
-        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -2138,16 +2270,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2155,13 +2287,13 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2170,16 +2302,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2200,19 +2332,19 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2220,19 +2352,19 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>12000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -2256,19 +2388,19 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2276,22 +2408,22 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>27380563</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
@@ -22,9 +22,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="121">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="124">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段三小段00180004地號</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段三小段00180000地號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區潭美段五小段01150000地號</t>
+  </si>
+  <si>
+    <t>100000分之2287</t>
+  </si>
+  <si>
+    <t>10000分之170</t>
+  </si>
+  <si>
+    <t>嚴紀華</t>
+  </si>
+  <si>
+    <t>98年08月01日</t>
+  </si>
+  <si>
+    <t>99年08月16日</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>39980000(含建物）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>蔡正元</t>
+  </si>
+  <si>
+    <t>tmp671f1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,64 +135,25 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市信義區信義段三小段 0018-0004 地號</t>
-  </si>
-  <si>
-    <t>臺北市信義區信義段三小段 0018-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區潭美段五小段 0115-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之 2287</t>
-  </si>
-  <si>
-    <t>10000分之 170</t>
-  </si>
-  <si>
-    <t>嚴紀華</t>
-  </si>
-  <si>
-    <t>98年08月 01日</t>
-  </si>
-  <si>
-    <t>99年08月 16日</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>39,980,000(含 建物）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市内湖區潭美段五小段 00902-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市信義區信義段三小段 01833-000 建號</t>
+    <t>臺北市内湖區潭美段五小段00902000建號</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段三小段01833000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>蔡正元</t>
-  </si>
-  <si>
-    <t>99年08月 16曰</t>
-  </si>
-  <si>
-    <t>98年07月 01曰</t>
+    <t>99年08月16曰</t>
+  </si>
+  <si>
+    <t>98年07月01曰</t>
   </si>
   <si>
     <t>夫妻贈與</t>
   </si>
   <si>
-    <t>39,980,000(含 土地）</t>
+    <t>39980000(含土地）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -114,16 +165,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>小客車BMW 523 (汽車）</t>
-  </si>
-  <si>
-    <t>小客車BENZ S350 (汽車）</t>
-  </si>
-  <si>
-    <t>99年02月 02日</t>
-  </si>
-  <si>
-    <t>99年01月 05日</t>
+    <t>小客車BMW523(汽車）</t>
+  </si>
+  <si>
+    <t>小客車BENZS350(汽車）</t>
+  </si>
+  <si>
+    <t>99年02月02日</t>
+  </si>
+  <si>
+    <t>99年01月05日</t>
   </si>
   <si>
     <t>型式</t>
@@ -135,10 +186,10 @@
     <t>國籍標示及編號</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣 總 額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -150,16 +201,10 @@
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>匯豐銀行</t>
   </si>
   <si>
-    <t>4 匯豐銀行</t>
+    <t>4匯豐銀行</t>
   </si>
   <si>
     <t>台新國際商業銀行</t>
@@ -222,16 +267,10 @@
     <t>港幣</t>
   </si>
   <si>
-    <t>嚴紀華 .</t>
-  </si>
-  <si>
-    <t>3，586，993</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>嚴紀華.</t>
+  </si>
+  <si>
+    <t>3586993</t>
   </si>
   <si>
     <t>quantity</t>
@@ -246,27 +285,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中影</t>
   </si>
   <si>
@@ -306,15 +324,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-18</t>
-  </si>
-  <si>
-    <t>tmp671f1</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -327,22 +336,22 @@
     <t>有</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>項 / 件</t>
-  </si>
-  <si>
-    <t>t額：新臺幣 元）</t>
-  </si>
-  <si>
-    <t>價 額</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總名</t>
+  </si>
+  <si>
+    <t>項件</t>
+  </si>
+  <si>
+    <t>t額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>價額</t>
   </si>
   <si>
     <t>債權人</t>
@@ -363,10 +372,10 @@
     <t>應收款項</t>
   </si>
   <si>
-    <t>洪信行 新北市新店區中央路五街</t>
-  </si>
-  <si>
-    <t>96年07月 19日</t>
+    <t>洪信行新北市新店區中央路五街</t>
+  </si>
+  <si>
+    <t>96年07月19日</t>
   </si>
   <si>
     <t>債務人</t>
@@ -378,10 +387,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>華南銀行松山分行 臺北市松山區八德路</t>
-  </si>
-  <si>
-    <t>99年08月 23日</t>
+    <t>華南銀行松山分行臺北市松山區八德路</t>
+  </si>
+  <si>
+    <t>99年08月23日</t>
   </si>
   <si>
     <t>房貸</t>
@@ -743,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,83 +780,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>5864897</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>966</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>891</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <v>4411657</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>966</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>3467.46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>966</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -865,25 +958,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -891,25 +984,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>162.99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -917,22 +1010,22 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>186.09</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2">
         <v>1050200</v>
@@ -953,22 +1046,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -976,19 +1069,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>2350000</v>
@@ -999,19 +1092,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>2000000</v>
@@ -1032,16 +1125,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1049,16 +1142,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1076,22 +1169,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1099,16 +1192,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1120,16 +1213,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1141,16 +1234,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>10000</v>
@@ -1164,16 +1257,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>61.45</v>
@@ -1187,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1208,16 +1301,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1229,16 +1322,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1250,16 +1343,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1271,16 +1364,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
         <v>59853</v>
@@ -1294,22 +1387,22 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
         <v>107395</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1317,16 +1410,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1338,16 +1431,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1359,16 +1452,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1380,16 +1473,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1401,16 +1494,16 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1422,16 +1515,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1443,16 +1536,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1464,16 +1557,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1485,16 +1578,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1506,16 +1599,16 @@
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1527,16 +1620,16 @@
         <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2">
         <v>8000</v>
@@ -1550,16 +1643,16 @@
         <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2">
         <v>953744</v>
@@ -1573,16 +1666,16 @@
         <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1594,16 +1687,16 @@
         <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1615,16 +1708,16 @@
         <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -1636,16 +1729,16 @@
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1657,16 +1750,16 @@
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -1688,43 +1781,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1732,10 +1825,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>305000</v>
@@ -1744,28 +1837,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>966</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
         <v>79</v>
@@ -1776,10 +1869,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>529</v>
@@ -1788,28 +1881,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>966</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
         <v>80</v>
@@ -1820,10 +1913,10 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>647174</v>
@@ -1832,28 +1925,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>966</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2">
         <v>81</v>
@@ -1864,10 +1957,10 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>16752</v>
@@ -1876,28 +1969,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2">
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <v>966</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2">
         <v>82</v>
@@ -1908,10 +2001,10 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>2483</v>
@@ -1920,28 +2013,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2">
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
         <v>966</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2">
         <v>83</v>
@@ -1952,10 +2045,10 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>95000</v>
@@ -1964,28 +2057,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2">
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2">
         <v>966</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N7" s="2">
         <v>84</v>
@@ -1996,10 +2089,10 @@
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>27389</v>
@@ -2008,28 +2101,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G8" s="2">
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2">
         <v>966</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N8" s="2">
         <v>85</v>
@@ -2040,10 +2133,10 @@
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>4545</v>
@@ -2052,28 +2145,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G9" s="2">
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2">
         <v>966</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2">
         <v>86</v>
@@ -2084,10 +2177,10 @@
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>7766</v>
@@ -2096,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2">
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2">
         <v>966</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2">
         <v>87</v>
@@ -2128,10 +2221,10 @@
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>14168</v>
@@ -2140,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2">
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2">
         <v>966</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N11" s="2">
         <v>88</v>
@@ -2172,10 +2265,10 @@
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>972</v>
@@ -2184,28 +2277,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2">
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2">
         <v>966</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N12" s="2">
         <v>89</v>
@@ -2216,10 +2309,10 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>20000</v>
@@ -2228,28 +2321,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2">
         <v>966</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N13" s="2">
         <v>90</v>
@@ -2270,16 +2363,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2287,13 +2380,13 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2302,16 +2395,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2329,22 +2422,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2352,22 +2445,22 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2">
         <v>12000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2385,22 +2478,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2408,22 +2501,22 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>27380563</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -141,13 +141,16 @@
     <t>39980000(含土地）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>小客車BMW523(汽車）</t>
   </si>
   <si>
+    <t>小客車BENZS350(汽車）</t>
+  </si>
+  <si>
     <t>99年02月02日</t>
-  </si>
-  <si>
-    <t>小客車BENZS350(汽車）</t>
   </si>
   <si>
     <t>99年01月05日</t>
@@ -1071,38 +1074,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
-        <v>2497</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2350000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
@@ -1111,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1119,8 +1143,29 @@
       <c r="G2" s="2">
         <v>2350000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>966</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>33</v>
       </c>
@@ -1134,13 +1179,34 @@
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2">
         <v>2000000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>966</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1158,16 +1224,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1175,16 +1241,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1202,13 +1268,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1223,13 +1289,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1244,13 +1310,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1265,13 +1331,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1288,13 +1354,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1311,13 +1377,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1332,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1353,13 +1419,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1374,13 +1440,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1395,13 +1461,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1418,13 +1484,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1433,7 +1499,7 @@
         <v>107395</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1441,16 +1507,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1462,13 +1528,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1483,13 +1549,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1504,13 +1570,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1525,13 +1591,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1546,13 +1612,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1567,13 +1633,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -1588,13 +1654,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
@@ -1609,13 +1675,13 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>30</v>
@@ -1630,13 +1696,13 @@
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>30</v>
@@ -1651,13 +1717,13 @@
         <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>30</v>
@@ -1674,13 +1740,13 @@
         <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>30</v>
@@ -1697,13 +1763,13 @@
         <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
@@ -1718,13 +1784,13 @@
         <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>30</v>
@@ -1739,13 +1805,13 @@
         <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>30</v>
@@ -1760,13 +1826,13 @@
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>30</v>
@@ -1781,13 +1847,13 @@
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -1818,13 +1884,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1856,7 +1922,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1868,13 +1934,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1900,7 +1966,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -1912,13 +1978,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1944,7 +2010,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1956,13 +2022,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1988,7 +2054,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2000,13 +2066,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -2032,7 +2098,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -2044,13 +2110,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -2076,7 +2142,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2088,13 +2154,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -2120,7 +2186,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2132,13 +2198,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -2164,7 +2230,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -2176,13 +2242,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -2208,7 +2274,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -2220,13 +2286,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>28</v>
@@ -2252,7 +2318,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2264,13 +2330,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -2296,7 +2362,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -2308,13 +2374,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -2340,7 +2406,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2352,13 +2418,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -2394,13 +2460,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -2409,13 +2475,13 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2424,16 +2490,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2451,19 +2517,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1">
         <v>12000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
@@ -2474,19 +2540,19 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>12000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
@@ -2507,22 +2573,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>27380563</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2530,22 +2596,22 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>27380563</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
@@ -10,19 +10,18 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="航空器" sheetId="4" r:id="rId4"/>
-    <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="股票" sheetId="6" r:id="rId6"/>
-    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
-    <sheet name="債權" sheetId="8" r:id="rId8"/>
-    <sheet name="債務" sheetId="9" r:id="rId9"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
+    <sheet name="債權" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -141,6 +140,9 @@
     <t>39980000(含土地）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -156,151 +158,145 @@
     <t>99年01月05日</t>
   </si>
   <si>
-    <t>幣別</t>
+    <t>car</t>
+  </si>
+  <si>
+    <t>匯豐銀行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>4匯豐銀行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>香港富邦銀行</t>
+  </si>
+  <si>
+    <t>香港中國工商銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>新加坡商星展銀行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期■款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>港幣</t>
+  </si>
+  <si>
+    <t>嚴紀華.</t>
+  </si>
+  <si>
+    <t>3586993</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>中影</t>
+  </si>
+  <si>
+    <t>茂矽</t>
+  </si>
+  <si>
+    <t>元大金</t>
+  </si>
+  <si>
+    <t>國豐實業</t>
+  </si>
+  <si>
+    <t>光寶科</t>
+  </si>
+  <si>
+    <t>台積電</t>
+  </si>
+  <si>
+    <t>寶成</t>
+  </si>
+  <si>
+    <t>宏碁</t>
+  </si>
+  <si>
+    <t>第一金</t>
+  </si>
+  <si>
+    <t>鴻海</t>
+  </si>
+  <si>
+    <t>台泥</t>
+  </si>
+  <si>
+    <t>新光金</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總名</t>
+  </si>
+  <si>
+    <t>t額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項件</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>匯豐銀行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>4匯豐銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>香港富邦銀行</t>
-  </si>
-  <si>
-    <t>香港中國工商銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>新加坡商星展銀行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期■款</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>港幣</t>
-  </si>
-  <si>
-    <t>嚴紀華.</t>
-  </si>
-  <si>
-    <t>3586993</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>中影</t>
-  </si>
-  <si>
-    <t>茂矽</t>
-  </si>
-  <si>
-    <t>元大金</t>
-  </si>
-  <si>
-    <t>國豐實業</t>
-  </si>
-  <si>
-    <t>光寶科</t>
-  </si>
-  <si>
-    <t>台積電</t>
-  </si>
-  <si>
-    <t>寶成</t>
-  </si>
-  <si>
-    <t>宏碁</t>
-  </si>
-  <si>
-    <t>第一金</t>
-  </si>
-  <si>
-    <t>鴻海</t>
-  </si>
-  <si>
-    <t>台泥</t>
-  </si>
-  <si>
-    <t>新光金</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>t額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -987,7 +983,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -1040,7 +1036,7 @@
         <v>1050200</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1085,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1126,7 +1122,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
@@ -1135,7 +1131,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1144,7 +1140,7 @@
         <v>2350000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1170,7 +1166,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
@@ -1179,7 +1175,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1188,7 +1184,7 @@
         <v>2000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1215,50 +1211,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -1268,13 +1220,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1289,13 +1241,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1310,13 +1262,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1331,13 +1283,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1354,13 +1306,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1377,13 +1329,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1398,13 +1350,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1419,13 +1371,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1440,13 +1392,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1461,13 +1413,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1484,13 +1436,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1499,7 +1451,7 @@
         <v>107395</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1507,16 +1459,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1528,13 +1480,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1549,13 +1501,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1570,13 +1522,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1591,13 +1543,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1612,13 +1564,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1633,13 +1585,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -1654,13 +1606,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
@@ -1675,13 +1627,13 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>30</v>
@@ -1696,13 +1648,13 @@
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>30</v>
@@ -1717,13 +1669,13 @@
         <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>30</v>
@@ -1740,13 +1692,13 @@
         <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>30</v>
@@ -1763,13 +1715,13 @@
         <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
@@ -1784,13 +1736,13 @@
         <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>30</v>
@@ -1805,13 +1757,13 @@
         <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>30</v>
@@ -1826,13 +1778,13 @@
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>30</v>
@@ -1847,13 +1799,13 @@
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -1868,7 +1820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -1884,13 +1836,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1922,7 +1874,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1934,13 +1886,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1966,7 +1918,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -1978,13 +1930,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -2010,7 +1962,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2022,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -2054,7 +2006,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2066,13 +2018,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -2098,7 +2050,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -2110,13 +2062,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -2142,7 +2094,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2154,13 +2106,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2">
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -2186,7 +2138,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2198,13 +2150,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -2230,7 +2182,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -2242,13 +2194,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -2274,7 +2226,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -2286,13 +2238,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>28</v>
@@ -2318,7 +2270,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2330,13 +2282,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -2362,7 +2314,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -2374,13 +2326,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2">
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -2406,7 +2358,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2418,13 +2370,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -2450,7 +2402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2460,13 +2412,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -2475,13 +2427,13 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2490,16 +2442,72 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2517,78 +2525,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1">
-        <v>12000000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>118</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>27380563</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2596,22 +2548,22 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>27380563</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -161,66 +161,75 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>匯豐銀行</t>
   </si>
   <si>
+    <t>4匯豐銀行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>香港富邦銀行</t>
+  </si>
+  <si>
+    <t>香港中國工商銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>新加坡商星展銀行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期■款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>4匯豐銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>香港富邦銀行</t>
-  </si>
-  <si>
-    <t>香港中國工商銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>新加坡商星展銀行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期■款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -230,16 +239,13 @@
     <t>嚴紀華.</t>
   </si>
   <si>
-    <t>3586993</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中影</t>
@@ -1212,13 +1218,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1229,590 +1235,1138 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2202494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>2202494</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>966</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>966</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>300000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>966</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
         <v>47</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>61.45</v>
-      </c>
-      <c r="G5" s="2">
         <v>2052.43</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>966</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>580835</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>966</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>966</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
         <v>50</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>426215</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>966</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
         <v>51</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>426215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>4519148</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>966</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2">
-        <v>59853</v>
-      </c>
-      <c r="G10" s="2">
         <v>1999090.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>966</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2">
-        <v>107395</v>
+        <v>3586993</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2">
+        <v>966</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2">
         <v>329625</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>966</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>966</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>283068</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
+        <v>966</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>1006645</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>966</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>216013</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
+        <v>966</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>356487</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2">
+        <v>966</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>237665</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <v>966</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>4611535</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2">
+        <v>966</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>4085157</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>966</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2">
+        <v>966</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="2">
-        <v>8000</v>
-      </c>
-      <c r="G22" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2">
+        <v>966</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="2">
-        <v>953744</v>
-      </c>
-      <c r="G23" s="2">
         <v>4291848</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2">
+        <v>966</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>473</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="2">
+        <v>966</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2">
+        <v>966</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>335</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="2">
+        <v>966</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>1875</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2">
+        <v>966</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>416</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="2">
+        <v>966</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1836,13 +2390,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1874,7 +2428,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1886,13 +2440,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1918,7 +2472,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -1930,13 +2484,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2">
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1962,7 +2516,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1974,13 +2528,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -2006,7 +2560,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2018,13 +2572,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2">
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -2050,7 +2604,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -2062,13 +2616,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2">
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -2094,7 +2648,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2106,13 +2660,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2">
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -2138,7 +2692,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2150,13 +2704,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2">
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -2182,7 +2736,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -2194,13 +2748,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -2226,7 +2780,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -2238,13 +2792,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2">
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>28</v>
@@ -2270,7 +2824,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2282,13 +2836,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2">
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -2314,7 +2868,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -2326,13 +2880,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2">
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -2358,7 +2912,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2370,13 +2924,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -2412,13 +2966,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -2427,13 +2981,13 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2442,16 +2996,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2469,19 +3023,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1">
         <v>12000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
@@ -2492,19 +3046,19 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>12000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
@@ -2525,22 +3079,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1">
         <v>27380563</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2548,22 +3102,22 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>27380563</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
@@ -12,16 +12,15 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="債權" sheetId="7" r:id="rId7"/>
-    <sheet name="債務" sheetId="8" r:id="rId8"/>
+    <sheet name="債權" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -224,7 +223,7 @@
     <t>支票存款</t>
   </si>
   <si>
-    <t>活期■款</t>
+    <t>活期款</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -285,27 +284,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>t額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>價額</t>
   </si>
   <si>
     <t>應收款項</t>
@@ -2958,54 +2936,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>108</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>94</v>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3023,78 +3000,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1">
-        <v>12000000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>118</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1">
         <v>27380563</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3102,22 +3023,22 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>27380563</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2012-04-18_財產申報表_tmp671f1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -286,6 +286,12 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>應收款項</t>
   </si>
   <si>
@@ -295,6 +301,9 @@
     <t>96年07月19日</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -305,6 +314,9 @@
   </si>
   <si>
     <t>房貸</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2936,53 +2948,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1">
-        <v>12000000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>12000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>966</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2992,53 +3046,95 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1">
-        <v>27380563</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>27380563</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>966</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
